--- a/01-CodigoFuente/main/consulta_datos/db_cone/db_cone/bin/Debug/net8.0/spreadsheetlight.xlsx
+++ b/01-CodigoFuente/main/consulta_datos/db_cone/db_cone/bin/Debug/net8.0/spreadsheetlight.xlsx
@@ -6,7 +6,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet name="Sheet1" sheetId="1" r:id="R2903de82a25c4b5d"/>
+    <x:sheet name="Sheet1" sheetId="1" r:id="R1d00dd0634b94871"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/01-CodigoFuente/main/consulta_datos/db_cone/db_cone/bin/Debug/net8.0/spreadsheetlight.xlsx
+++ b/01-CodigoFuente/main/consulta_datos/db_cone/db_cone/bin/Debug/net8.0/spreadsheetlight.xlsx
@@ -6,7 +6,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet name="Sheet1" sheetId="1" r:id="R1d00dd0634b94871"/>
+    <x:sheet name="Sheet1" sheetId="1" r:id="Re89e97c0c88f48ca"/>
   </x:sheets>
 </x:workbook>
 </file>
